--- a/SpieleWhatToPlay.xlsx
+++ b/SpieleWhatToPlay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fcorrado/Documents/ITC/Sem1/Internetbasierte_Anwendungen_Unterlagen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/whattoplay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048C4B3F-4C5D-8F48-99F3-67A7492B8696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084BED8-2705-E349-A8E5-EAC8BA3CE482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{1F75BF73-CE41-404A-8781-2DF4158575B3}"/>
+    <workbookView xWindow="1860" yWindow="820" windowWidth="28240" windowHeight="17560" xr2:uid="{1F75BF73-CE41-404A-8781-2DF4158575B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>Genre</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PC, XBOX ONE, PS4, Nintendo Switch</t>
   </si>
   <si>
-    <t>Durchschnittlich 50+Stunden</t>
-  </si>
-  <si>
     <t>Singleplayer</t>
   </si>
   <si>
@@ -86,18 +83,9 @@
     <t>The Binding of Isaac: Rebirth</t>
   </si>
   <si>
-    <t>https://steamcdn-a.akamaihd.net/steam/apps/250900/header.jpg?t=1573181772</t>
-  </si>
-  <si>
     <t>Action, Adventure</t>
   </si>
   <si>
-    <t>Pc, XBOX ONE, PS4, Nintendo Switch</t>
-  </si>
-  <si>
-    <t>Main Story: 5 Stunden, optionaler Content: 50+</t>
-  </si>
-  <si>
     <t>Singleplayer, teilweise Multiplayer</t>
   </si>
   <si>
@@ -120,16 +108,265 @@
   </si>
   <si>
     <t>60 Euro</t>
+  </si>
+  <si>
+    <t>XCOM: Enemy Unknown</t>
+  </si>
+  <si>
+    <t>https://www.beyondpixels.at/wp-content/uploads/2016/12/the_binding_of_isaac_rebirth__afterbirth-2711026.jpg</t>
+  </si>
+  <si>
+    <t>https://d3tg06jbotvai2.cloudfront.net/game_tetiere/img/xcom-enemy-unknown-img-4.jpg</t>
+  </si>
+  <si>
+    <t>Strategie</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ca 30 Stunden</t>
+  </si>
+  <si>
+    <t>Singleplayer, Multiplayer</t>
+  </si>
+  <si>
+    <t>30 Euro</t>
+  </si>
+  <si>
+    <t>Darkest Dungeon</t>
+  </si>
+  <si>
+    <t>25 Euro</t>
+  </si>
+  <si>
+    <t>ca 55 Stunden</t>
+  </si>
+  <si>
+    <t>50 Stunden+</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/8/8d/Darkest_Dungeon_Logo.png</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot N. Sane Trilogy</t>
+  </si>
+  <si>
+    <t>Jump &amp; Run</t>
+  </si>
+  <si>
+    <t>ca 15 Stunden</t>
+  </si>
+  <si>
+    <t>https://cdn03.nintendo-europe.com/media/images/10_share_images/games_15/nintendo_switch_4/H2x1_NSwitch_CrashBandicootNSaneTrilogy_image1600w.jpg</t>
+  </si>
+  <si>
+    <t>ca 12 Stunden</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>PC, XBOX ONE, PS4</t>
+  </si>
+  <si>
+    <t>BioShock Remastered</t>
+  </si>
+  <si>
+    <t>20 Euro</t>
+  </si>
+  <si>
+    <t>https://www.macgamestore.com/images_boxshots/master/bioshocktm-remastered-1548950860.jpg</t>
+  </si>
+  <si>
+    <t>Spyro Reignited Trilogy</t>
+  </si>
+  <si>
+    <t>ca 16 Stunden</t>
+  </si>
+  <si>
+    <t>https://cdn03.nintendo-europe.com/media/images/10_share_images/games_15/nintendo_switch_4/H2x1_NSwitch_SpyroReignitedTrilogy_image1600w.jpg</t>
+  </si>
+  <si>
+    <t>Fallout 4</t>
+  </si>
+  <si>
+    <t>Shooter, Rollenspiel</t>
+  </si>
+  <si>
+    <t>ca 27 Stunden</t>
+  </si>
+  <si>
+    <t>https://s3.gaming-cdn.com/images/products/755/orig/fallout-4-cover.jpg</t>
+  </si>
+  <si>
+    <t>ca 10 Stunden</t>
+  </si>
+  <si>
+    <t>Batman Arkham Knight</t>
+  </si>
+  <si>
+    <t>Adventure, Rollenspiel</t>
+  </si>
+  <si>
+    <t>https://www.pcgames.de/screenshots/original/2014/03/BatmanArkhamKnight3-gamezone.jpg</t>
+  </si>
+  <si>
+    <t>Yooka-Laylee</t>
+  </si>
+  <si>
+    <t>PC, Nintendo Switch</t>
+  </si>
+  <si>
+    <t>https://steam.cryotank.net/wp-content/gallery/yookalaylee/Yooka-Laylee-01-HD.png</t>
+  </si>
+  <si>
+    <t>BattleBlock Theater</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExMVFhUXGB0ZFxcYFxUYHhoYGBgWGB4YGB0YHSggGBolHRcVITEhJSkrLy4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0mICYvLy8tLS0tLS0tLy0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAJkBSQMBEQACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAgMEBQYBBwj/xABGEAACAQIDBAcFBQUHAgcBAAABAgMAEQQSIQUTMUEGIlFhcYGRMlKhsdEUI0JywQczYrLwFUNTgpLC4XOiNERjhKOz8SX/xAAbAQABBQEBAAAAAAAAAAAAAAAAAQIDBAUGB//EAD8RAAEDAgQCBgkDAwQBBQEAAAEAAgMEEQUSITFBURMyYXGBoQYUFSJSkbHR8EJiwSMz4SQ0Q/ElNXKCkqIW/9oADAMBAAIRAxEAPwDHYT73BTw8Sgzr/N8wfWusrI88Dm9iwgejna9Z+NrgHtrk1upVCEUIRQhFCFLj4ChCm7D0eaY/3UVh+Z7/AEHrWthMd3ufy/lZ2IOuGs5n6KqJrfUCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCKEIoQihCvOij2mKng6kfI/Wmg30UFQPdvyWfMO7Z4z+BivkDp8LVyErMjy3kVtxPzsDua7UakRQhFCEUIUwUIUzCm2Dduc0p9E0/210WGNywZuZ/wsipOaotyCrMlaGZIjJRmSoyUZkIyUZkIyUZki7u6TMlRu6MyEbujMhG7ozIRu6MyEbujMhG7ozIRu6MyEbujMhcyUuZC7u6M6FzJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQjJRmQrHBNkkVuwiog6xUbxmaQm+k8OXFyHk6q49Mp+Q9awsTZlnJ56q7h780IHJVtZ6vIoQihC6KEKRO+VSewE0IVtj4ckOHi92ME/mbU/rXUxN6OJrexYQdnke/mVX7un3Ul0pISSABqdB50hcALlCkbQ2VLA2SWNkbjY/8VDBUxTtzRuuE+SN8dswtdRd3U90y66I6S6LpW6pMyVG6ozIRuqMyEbqjMhG6ozIRuqMyEbqjMhG6ozIRuqMyEbqjMhG6ozIXGipQUhSd3S3RdGSkzIRu6W6Ebui6Lo3dF0XXd1RdF1zd0XQjd0XRdG7oui6N3RdCN3RdF0bui6Lo3dF0XXRCTewOmp0Og7T2U0yNG5SgE7Lm7p10l0bui6Lo3dF0XU3dUxMuudKluMNJ2qyHxFj+hrPxVt2sd4KfDjZz2+Kod6L2FyewAk/CsW9lqp+DCyuyosTlmvlGgvYFjxPYDUck0cbczjYJ7WOcbAKa2wMYP/Ky+WU/7qrDEqU/rHmn+ryclCxELxMBNG8d+GdSoPgTofI1ajmjk6jgVEQRunhHvGjQfjkUadl7n4A1ap2Z5Wt7VDM/JG53Yr7bHWlbsGg8hXSvPvLEi0aFD3NNUl10Q86Qngl4XVv0hx/2lw1zZEAGc63527Tw9Kz8PpDSMLSNSeHkr1fVtqHgt0AH/ap9zWjdULq3wOxVbDSzMWDKRlAItbnfS99dKzpq1zKpkAGh3/hXoqMvp3T324Kt3NXrqndd3NF0t0bmi6Lo3NF0XRuaLoujc0XRdG5oui65uaLpLrVphsFh8Dh8RLhjM8rurXlZAMhPIaVluklfKWh1leDWNjDiEjpds7DiDBz4eLdCdGZlzFtQRbU+NSUkj87muN0ydrQ0ECyX0J2bhGjxc2LjLpCqEAE36xcGwBFzotJVySB4a0padrS0ucFbybO2XicDi5sNh3R4UJBYnQ2JBHWN+BqDpJmPDXFSZY3MJaFS9F8FgZYt0YpJMaS+UDNlsCSPxAezT6oy5iSfdumw9HYAbq7GB2Yzth4cPKcWBZkIewIylvxWA8DVcmTKCT7qlGTNYDVUfSkbJEDrh1kXFKQCCJbAg9ca3XkasUxnzDX3VFN0VjzU39omxMPDBgnhiVGkU5yotm6kZ19T606gke55BPBJVNa1oICr+hGyIJRI8kecxtqSGdVVonylkHHrrxpa2R7X2BKKZrS25Ck7exOx2wZWBVOK6tmSKZBo65vaAHsXqOATl4JvbvTpTEGkaXTa4XA4fA4bES4YzPMzq15WQDKTwA04U8ySvlc0OsmgMbGHFt010x2fhxDg58PDuhPGzMuYtrcW1Pn61LRyPMjmuN7JlQ1oaCBZTf7FgOwlxG6XfCQjefitv3Wx7erYVCJHiqtc2upC1vQXtwVD0S2GuKxUcDsyq2a5W1+qCdLgj4VeqpnRMzNVWBgkdYr0WT9lGCOi4icMP4ojr3jJWYK+b8Cu+qxrJ7K6KQjFYiGTNIIJAl+soIZHOZ8gJFmycKllq5CwEaXTGQMDiN1oYtndH8gWSSBZLdYCZ9G5gE68e2q/Tz7glS9HF2LN9CogcJtBbjM8aIuoF2JewF+/WrFS852OPYooR7rgnOlHQ3D4PCRu85OJfggsVa/ZzAA/Fz7KfDVyyS2A0TZIGMZcnVY3c1qKjdG6oRdT9zS2UV1zbGFD4Q3/ALtw/wDlv1vgWqvWsz0x7NVLSvy1I7dFHiSOMWGVR5CuTNyukFgpWxMVH9rhOdLDPrmGhyEVRxFpNM4AcvqpYSOkCVh9vY1rETx68jEpHwINM9mU1tj80onk5rR7N25LJgtoCcL91E46oOUkoCCFa9j1qzZaNsFVE2MnUj6psr87Lka3WZwuzYkxMBVApWJna2lyAqgkduprt8GBfOXHgCVk4qQ2EAcbJTx3JPbXQELIBSdzSJbqbh8JmhkPNWU+Wo/UVSnmEU8d9iCPor1PEZYJANwQfqkYrDR5huixXKt8wAOa3W4cr1NG54YTKBe525cPJVCAXWZ+FR51yOUI4Gx8qojEWOI00V51E5twTqFNOIZolj0ygk6DUnv9anigjMpnabkiyjkqZOiEDtADdcjw4Ck3F+GUi+hHEdlSuLi8Nsbb3vx5KIBvRl2bW+3ZzTDRWFzoBUpIAuVGNdlaYLotjJUDph3yngWKpcdoDEEiqTq+MG2pVoUkhHBV+IwLxuY5EZHHFWFjrz7x3irMUrZBdqgkY5hs5I3FSKO6NxQi6NxQi64YaEt1rth7dmw+AQRCKYiVxujG7sqsznOSp4XFuHOsWQMdMQTZabC4RAgJ/Zs/2pcVJi4bFYm3a7uQLmYE5lzk5SMo4dtNkswgMcnMu8HMFE6MQ4f7K4lyfeFwwaV1JKICgCjRtT8adVSWl35WTadv9NTdjYDD/YpN3mZJBJnZpHU2ROoSgsG1vypj3vL/AHt09rGhnu7LO9DZVhx+GkbQXYE6fiicc+8itCuA6HxCpUp/qK56M4lRtqWQnQmbv45bcKqy/wC2arEf99yxu04gZJ2txkl/netKmAMLT2KjOT0pHavQsZs446CCN8TGDCqnqwyXGZF0N2sdLcKyIZuhOYBaUkXSCxVBsOP7PiMVhwwY3jysVAX7vOczKytpaThY62qWok6QNeVHCzIXNSttdG55Q2KeaBjkvZEZLqoNrALa9udLT1TY/dASTU7n+8SpuxduYnD7PiMSRygSOuQxSMV6zHNdTb4U2RrXTuDjZOjc4QggXTmz5/tceLlxcIUrE27XJJbMyk5lzk5SMq8LcajkAjIDHJ8ZLxdwXOjMRxGzVwjTxorM5A3TswtKzXzBrcb8qfK/JOXcimRtzxBvNMbL2YuB2phl3okVgTmCkcVcWt5CpZagzRG42ITI4eikAvup+E2NIu1zjCv3W8d7gi5DRso048W+FV3TMMIYN1M2J4kLuCRsXbO62ljnUAmRlChtNd4F1trwPKllH9Jh70kZ/qOHcq9egyy3cYi2ZietEw4kn3786lbW5AGkJjqXMSbqP0SiRGxSOCWGVUcXARs0iF2/gtxFjcG1FW/PldzCKduXM3kVWdIsHKJs8rF846jlSgyjTKFPsW93z51aoXxluUbqtVteDc7Kt3NaNlTujc0WRdS8dIsSNI+iqL/8DvokcI2lzuCZGC9waFJxnRvasuGyxYJhvQCWEsR6jC9rEixINZU2JZ4yxotdaMVBlkD3G9lmH/Z/tFdTs+c/6W+TGspaShS9FsWvtbPxQ/8AbyEeoFqEKHLsxk9qCWP80cqfGwoQlYWc5XjWZwrjrKJLhuHEE68B6VGYmFwcQLjiluVabM2pJHKGlbeq+WMk2DKC3EWGup1rQw+YQSWtodFTroTMy99RqtVLhrEiujLdVhB2iQYra8qo10ZLLjgtLDZGiQg7nZXnRPCiVpore3EbeINxXOYlUlsUf7XLcp4Q1738Db881RRRss6KdLOLg9oa3nVmqqXSwho2t81DBSiKozHmrTpHhRHOwK2Da3tob1n0b88QVusb/UzDYqniwxLgRkXPLiPHwq9HM+LUFUjTiY5SrDGKthbgotft7TWxRZnMMkm517Fm14ayQRx7D59qe2LhY5MZho3sUMhLr+SN5ArDldkWoq6QGL3SikYRJ7wW7x21SJwrFcuTMdWLg5rAZVB6lgde6sPdaqyvS3FrOyMuU7plS9nD2lWQlTcWy3RSOfGrtC4iUDmqtWAYieSpt31lQAs7cFAuT5Ctieoigt0htdZDQTskshHFJBx1yNYW43PK1VWYrSOcGh4uUgNzYFOCCtGyTMpGxlhSa+JAKWOQkXUHT2u/sNcl6Tw1z4h0Grb7C9/FbGFyQAnNv2rRTYrZ2hzR87ZCw0793+tcVBFijSRG19+Oi2nvgtdxCTvdnkW3mnYZJv1arP8A5ocH/wD1H2Ueel5j5p/CbNw4sIYVaKUdZrlhbha5JsNBp9Koz1VS9xM8hzt2BUzI2AWYNCo+XZygoHUAXBUSS27xYNV1smMyAObmN+Ngoj6s3QkJvDNstXGXdBtbFs9uBvq+nC9MqBjDmf1Q+3aPkiM0t/cIuoO38ZB1GwbKswJ68YWwUjUNpY3rX9HqDEHzEPBDbfqvbw7VVrqmCNlxqexZ44ckG5JJuSe0tck6eNekMhyMyhcy+bO/MVcwY6RYrCeYEFVByxezlOnDhoO+sz1H38thtzP2V/1z3L3PyH3VQ6Sbwy7x95rd+BIIA5acAB5Vb9QjyhpCreuvzXurTYWIzM64rEyKmWyguVUjgbnlpyrlcfZW0+U0semuou4/LgtegmjlB6R2vI6K5ijwcWkWLMYOtllDA6nXrXsfpXOx1+LvJJYXHjdq0DHTsAGa3ilySQMCrbQYgixGaHgdD+GpvX8VH/B/+Sm5af4/MJeA2MkYRY2lZDdllEgslyToBo1z2341Smxure8vcQCD1bbqVlLG1oaNuah4rCYR3WR8cxdfZYSRgjwyirrMSxUt92HQ/tKhdHT31fqO0JceGwZPXxrvodGnIHjcW+dQz12LBovGW/8AxT2MpydHX8VR7fwGGVkbCyFnBuSHL21Gue9w3zrfwCXEqgllQz3e0Zflos+u6CL3mO97s1TP2vFcPtEv+o11ns6Hl9fusn1+Xn9PsoohcZrSOC4Ichj1gb3zdvE091FG4AEbd6a2skaSb7q1hx0kkH2aSMy6gRya9TXQm2pK8u3gaz5qTopMzDYK7FVCRmVwuq+XBspsQezUEVrRuDxoVmPBabEJG4qTKmZk3tbZX2jDYqZv3UCMIx781wCxtxVL28SeysTE6nO/o27D6rZw6myxmR252XvOBmRY0XMNFUegArLV/KVJE6e8PWlRYpQde0etCSxQyqRYgHx1oQq3HdG8HN+9wsEn5okPzFCFn8b+yvZUnDD7s3veN3Sx7RY2FANkEXVdN+ylB+5x2Lj7AxSUD/WL/GrLayduzj9fqq7qSF27QsX0l2TPgsVHh3nWdZInkzbrdsuUgC9mIOp7qtMq5Jmlr7WsSohTMhe10dwSQFp/2eR3lY2tZa53GHWY0dq2W9Q+Cc6RbJi+3RkG2azMLG3HjpwqClqH+rOB4bKVgzFruP1sp/TPYjy5ZI1zHmB8/lUeG1TYiWvNgmF2dgadws1tHZbYeNc+kkl9PdXs8TWrBUCokOXqt8ykNmM03KYMSGO7ezl18OddZCW9CDwsuSqA7pyON1dbGw5xKvmW7QqphxJW0kb5rBCTq4txDctDxrBq2xNIMR0Oq16Z0jhaQahU+0cTDiJiMQkgeIbt92rSIxBvcFSLcToQbXqvHDI/qC6mfI1nWNlHhwCZ7xxmOIahTlBdgCA5VdFsGaw1Outa9DRPY7PJp2LMrKtrhkZ811cMqzM5vmIUxa2BKG7RnmGtqLHXWsf0ipH5unB2tZUCA6O4OoV5t7FrukkgjAUZS5RQOu3sprzOvlxrnQx07miBmum3NRu9+zom2tuRzVTgcKVRQ1s3O3DU3sO4cPKvSaWF0cLWPNyBqnudc3T+4FT5U3MkjDLe9hekyC90uc2slbgUuUJMy1vQ2JPsZzLchpLceFzavOMSloI6t7ZmXdfe3yXU05eYm2PALI7Kwau0MZbIH0LW4dUtpfmbW866qoqxRYcyQcmj5jksiOLpqpwPMrm2dlpFM0YbOq2IJGovrY9pHbU+CVgrafMRcA2BO+35qocQiEEnum1+Ce2BshMRKY3coAubQanW2nZbQmocfxP1INBuAeI1OnD87k/Dadst3HW3BGyNirNiTC0hCqHJZLXOUhRobjnVavxno6SGpuRc8B38FNT0jOmkjIuBZWuI6P4BTlONYG9rfdX+A0qgMfnkaS0OtbcM4d6teoQNO3n/AAq3pJs/DROi4eRnvfOCQ2UaWNx56Vp4Pic1U/QOLeJIAtyPb5qpX00MbLjQ+Oqi7L2cJpVjLZVszM1gbKovfXvsPOtDGMRbQxtcTa5ttdVKCnE7jfYKbtbYUCRiXDzb0Bgr6Jpfger329ay6LGg+qbC86u/aW/wrtTRNERczh23VTuRXV5QsTMtrsCJBsu5XrCOWx15F7fC1eW1ctA2peyRl33OtuN9F2EReYxY6WCyWxNlLNIqEsAEZupluSoFgM2ldhi9b6lTxSXI1G3csSijbNLIHC//AGrqbo7gBYPi2RvdO6JB5jQceVY/t2aVpsHW5hn0Kvihgaf8qF0k2dhoWQYeRnJvmUlWCjkbjhryrSwfE5qqSwDi3jcAW8VVrqaGNlxYHhvqo2y9jvOzBMoC2zMx0F78hqeFWcXx6DD3iNwJcdVVo6B1Q3OTYKaNhYXME/tBM50sIgRfsvnt8ayv/wCgnLDLlOX/ANmn1WiMOgBy8e9RdqbHkwzqGIIJ6ji4BIsbEcVPrWhheNwYkTFazrct1TqaN9NaRpuFCdLm9dE2NrRYLLdIXG5SdyKflTcy0HSDZ6Q7NkhT2VjC956y3J7ybnzrh7km5XbkANsFsKEiKEIoQi9CEtZWHAn1NF0lgnFxjjn60XSZQp2CxBe9+VOBUbm2Xk/7QMRvNquP8HDovnI7MR6AVcp9GPPcPmf8Ku4XlYO8+X+Vf/s+iAWRjzIA8q53GHXe1vJadv6d+ZWl2jiYolMkjImlszfAdp8BWVG1zzlaLqPNbfZVWwukscvUG9cr7UhjyrrexOunpViemczXQdl0o991gEx022S8qo8YuVuCO486s4ZVNhcWv2Kc0ZhZYgsyXR17iDpxrq6essyzdWlZ9TQtkdc6OVns/pViIwUdzJERYhgCyADQoVAvbTQg3tVWVjT1ApGxuA1Nys7gCcvO9zrrdtT1tddeOvbT4i4dVPIaW+8NFbbOvY34VrYfmsb7LHxTJmFt1InhDAqf/wAPIjsIq5LE2VhY8XBWWDY3UXZuEkRbSSZgCSoHAaWzW94i3hyrNw3CmUdze5+ieXWblbtup1a6jRQlTsUJN9DwJ4HlVaaoa21iNwp4oHOvcHYpsqRxFTte12xUJY4biyu+juLIwrgW0MnzJryH0jNsTeO0LrsPYDTNPYsxg5CFw7aXzRH1Za9AxNo9kuH7R/CwqU/63xP8qZtXCTHETMIHYM9wyhbEWHafGsX0f9IKGkomxyus7jp8lcxDDZ5pbs2TvR3DyriQ5iZQqMCWy8wLCwJOuvpVb0mxujrKYCA3N+XBSYZQTQvPSbKP0LxRE6HS7QsT/qjNT+ldhh8Fuz6JmGNvUS35quMilipHWLNdQCT7R4gC9dHQV1JFQR9I9o90A/5WbU0076h2Rp3TkYHAC3bpb1rZglilbmiII5hUJWPa6zwQe1TtnswixLqLnKsYsCT1iC1gO4iuJ9I6mN2JU8Ehs0ak3sB3/JbuGQuFM97Rqdk70f138RUhJEGrKwAIJA4211Bqj6TVkBniqKZ4cR8JGltVYwynkEbo5QR3qsjYkaix4EdhGhHrXoVLO2eFsrdiAVzc0ZikLDwWi2TjWGzH4aJMPQyV4/iumLObb9Q87Ls6VgNO09irei+IK4mMDnG3wy113pkctFH3/wALGwZuaZ/5xVZLIpdlI6xdrqASfaPIa1tYdXUsVBGZHAe6LqpVU076h2Rp30SowBewt26WrZp5YZWZoiCOxZ8rJGG0gN+1XXR5zusWBzFv/jP1rzb0wfbEWdw+q6fB2Xpj3lU2ysIZyiovVGUu3JRobA82PZXQ4/jNPTUnQjVzht4Khh9DJJP0jtACrjpNtUTOsYsRESSw94i1h22F71meh2GSXNW8WHDt7VPjNQ1reibud1U16EucRQharpZ/4Zx2sg9ZEFcKF3LtloqVNRQhFCEUIRQhFCFZbMHVPj+lOCifuvLNiwridr45zqPtGXxEKKnzvTK6UxUen6j9AkpheZz/AIW+ZK2O2dr4bBrYi7nUIvE68T2Lf5Vz0MEtQdNlYfM47lecbX2k2IkzStc/hXko7FH68TW7BTtibYKAknVWXQqYJist+rMpjP5vaU/BvWq2IMuzMOGqdG7KQV6bhXugPO2viND8qwnCxU0jbOICwHTFV30l+NtDrxI004Vu4e54iAbspHuYGC44LJESe+P9P/NamcqlnKYG0JYiGYK2vC1uPMEH51LDUGN4cRdQztMsZZfdaLAY5JVzLfsIPEGuhgnZK3M1c/NC6J2VyjptuI+/f8p/SoPaMHPyU3qM3Aea6dtRDiHHfkaj2jBz8keozcvNOYfakTnKra8gQRfwvxqaOrikNmnVRSU0rBdwUyrChSopSp9ptQRxPMVUmpmutYDcKxFO5t7ngk68yT4mrDI2t2Chc9ztyp2wZrYeYdjyfyivJ/SOInFHG/ELr8O/2rVS4b93B+aL+Za77FP/AEpw/aP4WBSf73xP8qftHbuKEsix7vIrZVuhJ0A4nMOZNcpg/orDWUrZnuIJ5d61K3FTTylgC7sPaspxFpFj66tcqhU3W1vxEW48qix70ebRUwc15OtrHYJ9BiJqJC21lA6JtlnjJ5Ydv5o60fSpuahgb3fRQYV/uJT2qwPSuXiIV14dZvjpVNnoS9zWuEu9uHD/AAnuxpgJaW7KtmkaSRpZLBiLWFwAB8/E12uD4RHh0WRpJPM/bZYddXOqXXtYKbHi3jwse6bK8sjNew9kX7dOAFcYaNmK43I2XVovx5aLd6V1JQNc3fTzUSfbGJC/eMsiXBZSq6gEXtltratWq9EKaKJ0kGYOA01VODGZHvDXgWT21UCztl9mQCRfPRh62PnUvofWF1Oad51afL/tMxuDK8SjYqXsyT/+dMvdP8S9cjjMX/lyf3N/hbdEf9KO5QtgG2JiPZE/+yum9M25qWIdv2WTgf8Acf8AnNTG6Vy8RCup06x+OnhWVF6FvkjbIJd7HbgfHVWn40xry0t2uq6eV5ZDK9gxFrC9gB29p7zXaYNgseGx5Wkk/nDZYddXuqXbWCsujchAmN7ASXYWBuu7XTurifS1ofX242AHYVvYOCKYHvXMfM0sKnCtlhAs8aAKw7tPkLedUcPggpqu2ItJPPW3j2KzUOllhvTEKpwrIV6hFhppy7j2GvWYHxuYOjItwsuMla8OOe9+1O1Mo0UIWp6VH7gDtlhX1mjFcMF3DtlozQkRQhFCEUIRQhFCFZYFssZY8Bc+gpwUUm68x/ZVgy+8xOf25JG5G+8kdr+lUcYmtGyK3C/zKdTABr3HibfK38qz/aPs64jnH4Dlfwb2T5Mbf5qp4ZLZxjPFD28VgJYSSbc+/uArWfGS4OurUFW2OnfEW3J4p44kxsjKbFWDC/apv/xSytDmkFUm7r2bYMyzRsy8CbjuzAMR4g3FZENGHsdm32Csz3blvyXnvTHEBp5QPwMFPjlB/UVeoG2hF1FM+9gOAWOErcb634f7bfCrGZ+e1tFYdDTilDw7377Lu2F6oP8AEP1qVUVZ9FR905/jPwVa3cMH9EntWLiJ/qjuUaNQsasbezmvbkaw3blbLdgm4sSG0Itft/WmhwOylfC+MAuFr6hQNqJZ17LEju4U4aKM6rVbFctBGWJJI4nxNdPSEuhaTvZc7UgCVwHNTqsKuuM1hfspCbJRqVF2RteMRzKTluzEZhYaqLa/WvNcapnTVbpmNuDbb7Ls8PsyAMebFNQyhVw7HVVylufBdDYcbGx8q6vFoJZsPyRb2F+5YNC+NlWTJ2/NOs6u0kiDqsQb9pAsSO46UejNPLDTWkFr7d1kmNSRvm9w3tumsNjY4pw7kCyEA8bEnW/iBVb0rppp2NyC4G+uqnwKSNhcHGx4clWwbX3cmeMA6Mljfq5nVgLdwHDvqpV0vrdNDC83LdT38r7KzA7oZZJALA7fdRMFiFeQI7uqkm5vcA9g/hPbT5airjiyxXJH6f8ApOZDTOdmfYX4q1nRFssLlwQc+bXjwt8dByqxhM+JT52TNs21teG+ovv3KriEdHHldGbns4/ZSnxu9EaiMIsY0HfbLp2AcjS4DgclLUOnkN9xtr3qPE8QZNEI2Dkf8Lki3BFda4XCwgbFIlxatDDHc71NAbEG1iDY8LWt6CuCw3DqqmxMnKQ119eFuY7exdTV1MEtHvci2narPYQBwmTNcMHzHS92JDeHOubxFzvXXOdq4HfnY8ls0kTTTjLoLbKp2ZjBHJG5JI3bC9r8StuHhXXYzSz1tHAGAuNrnhyXP4fLFT1Euc5Re31UsvhCeLLfleQD/jyrLa7G6ePIA62yv5MNlfmuL7pnENGGUQtmH4gSSAO4trfurbwKoxN7yJwcv7tD4aarNxSGiay8R17P5UnYrHLiAWAzE+QyAX1P9Wrn/SdrvXwXC+1lqYMGupdO1UbYuWBI5ozY2GbTQra9iOzh4V1GKYfHV0jXPbc6a8RpwWNQ1JiqHMB01+qj4PGhmzAhWF819MxYiyjtuWuOy1UKSeSlkZkFwSG9ltlfqoY5oyHbgEq+rtFyqKELS9MGtDHbnicMPXERVwwXcO2WP/ar0txmGxcccUjRQhVZigQs2Ym9s41ygDTv1qURnLmULn62C3vQ3aMuIwUE0wtI6XbS19SM1uVwAfOoyLKRpuFdUiVFCEUITGNxkcKGSV1RBxZiFA8SaEJnau3Iv7KxOJgkSQLDKVZGDDMFYAXHfanBQv1K8z6N45sEkZEhVVRBJwsQoF738/WrGIU0Ugy7kD5GyZRudku7Ykkdx5rcbT6VbPmiZXmCgoXIkSSO6Djk3ijPxHs35VyzKaaJ4OVWmvaLgrzrGbNxqSIiRvIxUO8SRNIYo2vlMjg2DnQ5ADYHjXQ62VcWut90N6F4aaJMRK5lzX6tmQAqSpVgetcEEEacKjyE6uKk6QAWaF6FhsOkahUVVUcAoAHwp4twUZJJ1XjH7Qs8OOmYqwjkZWBtofu0W6m3HQ6UjS0e6Eiz39oxXvY37ctPQoWNxquBqdDwsfWhC0/RuO0APvEn410WHttAO26wa515iqyGUOoQ6ELa3mdRXPv6xW43YJMeHynMW4d1qYGgbKaSZ8gAcb22UHakl2XssbHt4UqjWt2SloYx/APleupphaJo7Fzc5vK49ql1OoVF2krGNgrZSRYHxqGcOLCGmxUsJaHguFwssQ6QkGI3Jsst9AFJGUdnZe/lXGSD/UZQ/q6FvauqY68Wa2+xTayEKCc1iLjgVJva9hwNaAEoaNTlPJVCYyToMwTjY3rgRZwNOOmt/wCEgWtbjVgPcJGiAu8bqAsbkcZgPBNuWNwEf2bXsRY9unGkZE+7s8ZJPFK6Rlm5HgDkjC7NkYWYkDstfXttfj3mpKfDXO6+iZPiDW6M1V5g9mqg7/j5mtqClZELNCx5ql8pu4qXHEBVkNAUBcSlKtuFLZJddoQm1hAN6blF7pcxtZRDhWuQGIU+0BoG8fXzrMnwmCaYSuaLi/DfvV+LEJY4ixpUvciwFuAsK0wxoFlRLje64cOtGQIzFKjiApQ0BIXEpjEYQM1/X6HtHdVaekjmcC8Xtqp4qh8YIad1F2++WMdl7G2mhBHztUGJktg9021HyU+HAOm1F9PNQ9mENKRax1LDlwS2nC9Z+Gi8uW922V7EDaLMRY3stBXQrCRQhaDpw7CCLIoZvtWHsCbaidCATyFxXDBdw/ZUe3MZLJKwl2ez2OnXgcAgW0uQfhW3T3ETQWXHgsifWQnNb5rT4bb5RFD4PFpYAaRBhw/gY1jyHM4labNGgJa9L8J+JpY7cTJBPGB/mZMvxplkuYKXg+kGEl/d4mF/CRfrQluFZA34UJVif2s7IfE4RETUiTNlzZc3UYc9LgkHWrNND0hOnBQVEgYBdZnBbKxGE2JjJMSyqcQ8MYRctlCsqXOTq3I4nsGtIYzHIGv7FFnDmEtWfxe2hIdysN1fqgyMY1buBANJPUNu4jUKaMWYG24K/wChXSySGZIsaFlw7NurSs0pgLArcNLc5DdVI4WIIquJQ46JSywutR0w6T4GdBho5MekakZpMIgUMALAZnF3UAD2dD2mpQL7JtirT9nu20aJsMh6kTWiYxmEyIQGLMh/EGLAnmRfnWNiDZWAAE5f5UrGXF1fbS6QR4c5XJFxcWqvSNqXNIiOimEQcLk2WH6UdIPtQyZRkvfXW58616OhMbi95u4pHlgblb81U4bY8Y1KIe7KK6enoWtOZ2q5+qr8wLWC3apgwcY4Rp/pX6VeEMY/SPks7pX8z805I4VSToBrSucGNudk1rS42G6psX0fVjmjdlvyuSNezXSs6XDmPOZht5q/FiD2DK4XUWLo+XFxOSNRwbkbHnULMNa8XD/JTOxAtNi3zXYejisTedmykqdOfMak0seGsdf3ttNk1+IPb+nftWjRQAAOAFvStgCwsssm5ulUqRcIoSqtzSxkqhsrG5BANud1B5mubr8CiqJxJtr7y2aXFJIYizfknDhLKLEj6nWt6np2xsDG7ALKmmc9xedymhh9bk3qwIwoC8roww7TS5AkzpxEA4U4CyQklKpUiKEIoQihCKEIoQihCKEIoQihCqNuxu5RBfKeNvLj5VnVzJJC1jdidVfo3xxhz3bjZM4LDsmIuAxBHWJ8OfoKgp6d0NSMl8tlLPUCan9617q9rYWWihCl7d2ycS0AwsE08UWISSSSNVykRhjlQuwDnMV4aacb1w4Fl2zjfZKm20m8Jkjnju1znhlAGvNgCvxrajq4hHlB4LKfTyZ724rRL0w2fe32qEHva3zFYq1bhTott4V/ZxELeEqH9aRLddxGzsNL7cUT35lUb42oQq9+h+C/DDu++JpIj6owoSZQqjbfR4RhRHicUvHQzGQcv8UMfjWlh7Mxcb27lRrXBoAVB08weIjwOEV8U0kcuIH3ZjjX2M73zKLngNO+qtcSHuubqSm1aLBZDazJumzm1xp23GoI771msBJ0V19rap/ZmGOJZJnB3eVCVI/eOouSf4QbeNuyrlNSOcDpz+ShdK1ti4228Vo5XLEk8TVhrQ0ZQpHOzG67DKVIZSQRwIoc0OFnbIBtqFb7Yx5xKRsR11BVu8cjUdHhksTyGj3Xajw/NFDJWQBpu7UHUd/54KNgNnlteNtbeFaYiZTuaZuJsBvqqUlS6oY4QcBck6fJS62lgIoQlYfLvYg6lk3gzAC5sLnhz1AqjiLiIDZXKEAzC6ilvuyV7Gy9ttcp9LVJGX+r3O9kyQN6e3C6kYhUV3ESsFAXRhlOfIubTvNjf+I1Ww0u6I38FPiAb0osuNkG7yKw+5QyXFryG5JHaCDx7qTDi8l5PPzS14aAwDl5LtaizkUJUUJEkgXvSWS3SMRwp7N0x2yj1ImIoQihCKEIoQihCKEIoQihCKEIoQihCKEJDR6g9lIRrdKDpZAj616La3RfSyXSpEUIVO+28ZChIxhCKODxQsAB4KD5XrzplQ4m1l6PJRtaL5rJvZnT7aT8Rhz1SwujqSB22JsasueG7rPBKbx/TfG4hI0tDFnzFmTruoU5cpDqQhJ+VK92UXU9JEZ5Mp24quwu3cQNGEE6q5W0kEd2HPMyi+mvDsqPpeatHD73ynjYXClJ0kw6Bi+zcOSjWZ0+7uDl9kciOdzyFPbIDbtVeWkcwOOhDVp4do7NLlGGLgkXiglxBsDqD91Iya9nGnONt1VGU7JvH7SwZW8eMxjMPZUEt8ZVsBfvqRlS6LqusmPhY/cLL4jaGNxWSBpjMImzIGSILFcFbuyIC7ZSdOdQyTGT3ncfmU+OG2jVPh6Mw2vJeR+bNb/tHBR3VE2dzerZWDTMdvf5q1XDW0DN6j6VZbiVS0WDreAULsMpnG7hfxKcXZhP4mHn/wAVA6rkcbkqUQxtFhdSIdiKf71hUT66VhuBdNdGwi2vzU6PYa21eQ+YH6U049W8HW8FSOHUxPV8ylRbMjN8sjmxsesOPpQ7G64bu8ggYfTfCm3wKH2ZX7zmBt5W1NPbjFdfU+SPUKc/pSEgiuV3ktx32/TWnnE8RtfN9ECgp72ypeFhUSKwd8qtbrEWJsb204D505mIVUjhHI64KPU4Y/ea3VQBuhEOvJfJ2/w+FAxCtvbPp3J3s+A65V3HyDfN1n465SLaIndU/rs8Xusdok9Thk95w1SrKxXrsPuohoQPwc9ONIa2aLqHfVL6pFJ1htoo6OLlWeS4PaOHI8Oz5UpxOp+JIMOp/hQw7JZPPL9KT2pU/EnjDabi1cyN/iP6r9KX2pU/EpPZVN8K5kb/ABH9V+lHtOp+JHsqm+FRsSso/vGI8vpTDitW3Z3kpmYRRO0LfNRxI/vt8PpTfbNZ8fkFL7Dovh8yuGV/fb4fSlGMVZ/X5BNOCUY/R5ldEr++3w+lJ7YrPj8glGB0R2b5lG8f32+H0o9sVnx+QS+w6L4fMrm+fm7fD6Uvtir4P8gm+xKMbt8yu7x/fb4fSk9sVnx+QTvYdF8PmUbx/fb4fSj2xWfH5BHsOj+HzKN4/vt8PpR7YrPj8gj2HR/D5lG8f32+H0o9sVnx+QR7Dovh8yjeP77fD6Ue2Kz4/II9h0Xw+ZRvH99vh9KPbFZ8fkEew6L4fMo3j++3w+lHtis+PyCPYdF8PmUbx/fb4fSj2xWfH5BHsOi+HzKN4/vt8PpR7YrPj8gj2HRfD5lG8f32+H0o9sVnx+QR7Dovh8yjeP77fD6Ue2Kz4/II9h0Xw+ZRvH99vh9KPbFZ8fkEew6L4fMrMbVxG+kyj93Gdf4nH6D51DCzKLncoq5s7so2C5sfF3mjP4SBf/PcfSnyj3CqgOq643MjnLcHRh2EXs319aY5pkaLLRoKttO5wcLg+R4f5UloY41UlwBqfEnmO3iagDnOJsFvvhigY1zngDfvJ5KHBhHdChGVWuWJ9o5iToOXLU1OSAbrAkq80ZjaN73J7SrSOBYlKL7bcTe5APMnmxqMuLzc7KiABoExGrSnJGcqLoz+H4U7+/lSucG6ndTxQOl20C1Wz8PHGgWMAKPn2ntPfTc2bVT9Hk0spNCEqJ7G9qE1wuFMXEL228aSyiLSF1XJ4cO0/pR3pidLG3EjzpuUckJBkZ+J0ChAVAXRb2OnE68e6pXuzWuExrLJbuzEEkaKEFlC6LwvbibUPeXbpWsyqHtDEsqoub2S2UBVuM/tEniR3doFPDy4ZU0tAN019oUqFAcW4EZbj1NNAINwlNiLJnLHaxLDlwH1pLHdOzDZKjw6sw6zHQkkgC/silcSdSkbYaBSEwAH4mPAcuA0A0prnFyVoyrmLhUFXPD2W8OR8j86BqLJdb3CakVeQpFO1nNJoT12hCSzAcaLhKAeCq5LXNuFVzurzb21SaROSCCNR5j6d9PBB0KicC05m/L7JStfhTSCNCntcHC4XaE5JOneKdo5Rm7O0Lgk7qMvagSX4Iz24+tGUHZGcg+8l0xSLtCEUIXKEJJkF7c+wXJ9BVmGknm/ttJ+nzUMk8cfXcAgvbirDvKMPmKsuwisaL5PMH6FQivpybB31XVYHUG9UHscw2cLHtVprg4XBSqYnIoQsjHh1UZBZ2XRmN8gPMIoPWN+LHvrRuXa7Bc5ZRtkA9cc1YKP8uoqRyRquMdOrsGBF2ALDsPAioYwQLFSFQ8Lh1FrAXPPsHZrwFSEouTur1ZVUWSzN28VX6mqti7fZO7lBxJ4IGsznVidbfiY9/LzqRvOyUAXteynwuqqFVowBwH9Goiwk3IK0GyhosHN/PFODE/xp8frR0f7T+eCXpv3N/PFOJtBh/eJ8frShpHAphe0/qb5/dL/ALWbtj+P1qXJ2FUzMb7hIG02OpZO4a6fGly9hTemPEhOrtlxwZPj9aTJ2FKZr8kmXb72uzJZeVjr6HWlLAOBTMxcU+vSByNDH6N9aToxyKM3aF3+3pP/AE/RvrSdGORRn7QmY9uMWYndk6cm4DUW17b07INgkvxTx6RNcD7u5/N9abkHanZuOi7/AG63ZH8frRk7CkzdyjnpARIo6l8pGgNtbHXXjpS5RtqjXdPtt2TtT4/Wk6PsKXP3Jp9rseJQ+v1pcnYU7pu5JXax7U+P1oLOwpenPYujax7U+P1pCwgbFPZNc2JASX2kT+NP686js7kVZDmD9TfzxTJxV/xp8frTejPIqQTAbOb+eKScSPfT+vOl6L9pSGo/e3z+659qHvp/XnR0X7T+eCPWP3t8/uky45VFy6eVz+tHR9h/PBHrH7m+f3XBiBe4kTX+r8adkuLFp/PBM6Wzrh7fP7pf2ke+nx+tN6L9pTun167fP7o+1j/ET4/Wk6P9p/PBL0/7m+f3SBi1DWzprrzt86cWdhv+diaJrHrNt+dqWcSvvp/XnSCMj9J/PBOM7SLF7fl/lNrjVDZc68L8D6XvSll+Bv8AnYmtmy6Zhbx+W6d+1D30/rzpvRH4T+eCd6wPjb5/dH2oe+n9edL0R+E/ngj1gfG3z+6Ukma/WGUe0VGuvADX2jWxhWFCodneDYbDmfsqdXXlgyscCTy4ea0XQ/YkmKdgqZYQCrMDlysRob8Wcca6SukjpYw1vW4Dhb7LGZmeSSrfH/s7mjUsmIBa+gOZbk8Bmvb1qtFjERNnR/L7JxiPNYyeJldkcBZQbX01b3Xtob6WYd1WqyggrIsw1B2PEfnJLT1UkDtD4KOMSObqDzB4g9h1rhpqV0UhY5p0/OS6BlUHAHOPP7o+1D30/rzqPoj8J/PBO9YHxt8/usvshXlZMPEtpCOLcABxfvq9luVjZrBK2dFZTrmuzG/aLkA+YF/OkdunN2UuaOyK3NgfIXsKY03JCclrhupn91lW3bfjTS7XKhTxUKlVJjo5HcvkfLwU5TYgcSPO/pUjZYxpcX700xPPvAGyZXDSHTI3+k/SlM0YF8w+aQQyE2sVYbe2I2H3etww1PY44jwqpRVoqMw5fRWqyk6ANPP6qLGugHP9TVxzrC6qNFzZTJtmzqxUxuSOaqSD3ggVVZWwuaDmCsPopmuIy3SotlTsbCJh3sCAO8k8BQ+vgaL5glZRTONstk1jsI0TlGINrajgQdbj+uVSU84mYHhR1EJhflKd2PEGnjB4BszeC9b9KjrnlsDrbnT5qSiZmmF+9Xn9lWJK4hApNwpW9gToONZ7cRe0BpjJIWg/DgXEh66+Gt/fRnwRvrTxXvP6PNN9nj4vJM490iSMqCR1lJ0uW6rEmnUT3vlfm3NimV0bY42Ze0JzZcaTpMzEqBlAOlwQc1x52plfM+OVgbvunUMLZIn5uKQgQlgJXNtL7pbHw61ONVOBfKPmUCjiJIzHyTG093HEpTMzCTOzMAL3BXkeFjw7qSmfI+fM+21rJ1TCxkFm8FAG0JGIVQLkgAAczWo/Kxpc7YLJYHPcGjiubRgmR2R85sdCAbEd1qhgqY5GB1wFNPTPY8tsSoywuSAFa5NhoeJ8qldPGATcKJsEhIFj8lL2zspsOygnMGW4P8Q9oVWoqwVAPMfRWKyl6Ai2xVeYy1lHEkAeJNv1q654Y0uPBVGNzODeaVNsfEKxUxObG1wpIPeD2VAytgc0HMFO+imBtlKXh9hYhmA3bL2swsB3m9Nkr4GtuHX7AnMoZnOsRZRto4NoZGjY3Knj2jkamp5hNGHhQTwmJ5YVL6MwhsQmb2Vux8FH/NV8ReWwEDc6Kxh7A6YX4aq1foqlyRiFAPAWOg5DjVNuKPAsYyrjsMaTfOmX6NoP/MA+CE/rTxiUh/4/NN9mNH6/JNdJsOiLBuxoFZb8zlINz3m96kw6RznyZ99CmYjG1jWZe1SOjuzElw0xkOUFgAw1IKgHT1tUNfUPjqWZOA+qkoadslO7NxKaj2NASQJZdDa+RdfDXtuPKnmtnH6W/MpG0EJvZx8kbdw8SYeNIw3VclmYAE5h3eVJRvkdOXP4p1ZE1kAa3gs9WwsZFCRanYWGLRwogu0jt5tcIL+VdphxbFTNedg2/wDKz5bueQvoXYey0w0KRJwUantbmx8TXLTzOmkL3cVaaLCyf2hHmTLa4JAPcCdSKY02KVYH9pWwg8JxKi0kZyyEfiTTK3iLr8a2sIqyyToXbO27/wDKgmZcXC8b6RD74n3lVj4ldflVTGGgStPMfQqWnPuqsrIVhLwuObDuZVVWOQqLkjKTwYW5jXTvpzSmOCmYdMqKOxR8BTTupBspm0ltu07FUfC9RRa3KcU7i+rHEvbdz8h86RuryfBBXcRIQlxxNgvidB86ZtupACbAKzwrMiqisbKLDU8qxnhr3FxG66BgyNDRwTv2p/fb1pnRM5BPzHmo20oJ5YVzBpM5V0sL5dSCpt2qQde+paeSGKbSwtcHt/CqdSySWLa99R2fgVbBsqYOmaKQDMpJyk6Ag8qvS1kLo3Brhe3NUIaSVsgLmm11dYqScl5AXWNWF7hgWzNbS/AAEa1mRiIBrDYkj6Ba73vJzDYJrFYiUgKpLMTYAk68SfgDT2Rxg3cLBLI99rN3UPbOGlfdEQy3CFW6jdtx46XqxRzRxl2ZwsdtVRrYny5S1pv3JrZGFlV2+5kvkZVujKLm3EkWAtepKyeJ7RZ4te51F/ko6KGSN5JadtNFPia4BPG1VSLFaTTcXQIBJJEjeyX14jgrHl4UjnljHOG4H8hNc0OLWnn/AAU/tLY0rLu06wD5gxIGhFrHnmGnKmU9bGx/SO00tb84JlTSvkZkHPddwOzJI4zG0kK3bMdWJ4AWtp2Uk1SyWXpA121k6np3xR5CQk4zKu7RDcKCC3aW6xPqD60RBzsz3bnh3KQgNsAoePTNG47j6jX9KsROyvBUczc0ZCrNki8gPYL/AKfqav1jv6duay6Bl5b8loBiX95vU1k9GzkFtZjzXTi3GudvWjomckZzzUXauGxEkaZg0jEh1IHshlIKG3C3VOvbUlLLDFKSCANj/B+qpVUcskYFrncfZQcFsyZZYy8UgUOpJyk6A35eFXairhfE4McLkc1Tp6WVkrS5ptdW07z6yXdUDgWIYFsxOovwAuKzWCHRmhNvp91quc++bhdNYrETGypdiT7JJ1ABY+dhT2Mjb7ztAiR77AN1Vf0hwUsjIywy3EYVuo3EE/oR6VaoaiOMOa54301CoV0D5XBzWnbkm9hYOZDIdzJmKZVzKyjiCbkjTRadWzxPDbOFr3OqbRRSRlxLTe2mis42uAe0VVIsbLSBuLpUeGWSWNGvYk3sSOCm3DhrTXyGONzhvp9UhaHOaD+aI2tsOaRFjWzZWJDkgAqQOP8AFca6UU1dHG4vdxG3b9lDVUskrQ0cDuncFsySOERNLCtiWvcsbnu04UyWpbJKZA1x/PFSQQPijyXC5jCilET2VXLftPG/zpYg4guduTdSGzSAFA2pHeJ/C/prViA2kBUNQ3NGQsvW2udRSpF6R+ytsPJPhkuwljeRirEEMN2SCumnW5a8L1sNq70pjHIDt381XdH7917fi5iiMwFyBoO2s5oubJ6ZwOIaWO7KUJuOPxHdSuAadEiq8TaXBYjecHR1PK5yCM/9wNTMJZK0t4EfVIdQvnLbzXnfrK1iAChutgANDzGlLiM4mluNrJ8TcrVX1QUqblFyq9rD0Gp+VKEhVuw+OnrpTU9SNoazEDtt6WWmR6MSndL2mfvCPdCr6D/mmxdW/NBQrXaEdrfyox+lQ1GjHfnJWqUXlb+cFa1lLbTeIPVa3YflTm9YJr+qVYTYl1sqsQAqgAflFVWRtcLkakn6qW5FgE39tk99vWn9DHySZyibFOYZszEgRk69oIpBE0SMsOKbI49G7uSNnH74H3UZ/MAL/up0/wDbtzICG9ceJXftT+83qaOiZyTsxTuFxT51uzEZgDryJpkkTMh04JWuN1Cj4f12mpyo27KTgLCWMkgAHn2lWUD1IqKe5jcB+a3Tm2zAldxTkMwubZjp50RgFoPYlcTcqPUqam5xpfs19Nac3dNfslOLg+FIN0p1Cp9he03coHxP0q7Vn3WrOoRZzldVRWkmcYeo35T8qdH1gmSGzCrTGYp1cqrEAaAeAFVIo2OaCRupy4g2CZ+2ye+3rUnQx8gm5zzRicSxglzEmwUi/wCdaRsbWytyjn9E2Rx6M37Pqk7Pa0hb3Y2PmSF+tLOLsA5kIb1/BH2p/fb1NO6NnIJ2Y809g8S+cAsSDyv3VHLG3KSAlDjdV+HPVXwFWHblRM6oU3ZhAlQkgcQO8kWt41BUXMZAUjbZgSkTOQStzYE6edPYAQCgk7Jmnpqbn4X7CD/XlTm8k1+112dbqw7QR8DQ02cErhdpCxwreGy5k7rtKkS4ZmRgyMVYG4IJBB7QRwpWuLTcJCLrabO/altCNcjsky8PvF1t+ZbfWpRKOLf4Tcit4P2zYhVC/ZYjYWuZH+lBkaeHn/hJkWc6UdP8ZjRkYrFGDfJHcXI7TxOtHTFvU0Shg4rKVCnooQkp+8j8T/LSjZJxVuvEeI/mFMOxT083/iP83+6mj+34JeKMd+9k/OaSLqBIV2H24fFv5DUFV1HfnJW6P+63x+it6yltpvEey3gflSt6wTX9U9ylYr2vJf5RUUXV+f1Ujvz5JmpE1Kk/cz/9M/MU3/kZ3pH/ANt3clYL22/6TfNKbL1R3j+Urev4H+E3UiE5h/bX8w+Ypj+qe5ObuouE9nzP8xqV+6ii6oXZ+A/On86Ug49x+iJOr4j6qbtD94/jUMP9sKZ+5UepUxJfgfD9KBug7LieyPD9KU7pB1VU7D9pvAfM1cq+q1UKHrOVzVJaCZxnsN+U05nWCZJ1Cp2P/eP4/SoIf7YUr+sVHqVNXZv3Evgv/wBi00f3WeP0KbJ/bPh9U5hOMv8A0/8AeKbJ+nv/AITh1j3fymqkQnsJ7a+NRy9Qpzd1B2f+6T8oqeXrnvUMP9sdyePtR/8AUT+YUz9Lu4/ROf8Ap7x9VIxftv8AmPzqOLqN7lI7rFM1ImpGI9lvA/Klbukf1Suv7J8D8qBug7FY0VvjZcy7ddpUiKEIoQuUiEUqF2hCKEL/2Q==</t>
+  </si>
+  <si>
+    <t>Rollenspiel, Action</t>
+  </si>
+  <si>
+    <t>Dark Souls 3</t>
+  </si>
+  <si>
+    <t>ca 33 Stunden</t>
+  </si>
+  <si>
+    <t>https://s3.gaming-cdn.com/images/products/857/orig/dark-souls-3-cover.jpg</t>
+  </si>
+  <si>
+    <t>Final Fantasy X/X-2 HD Remaster</t>
+  </si>
+  <si>
+    <t>https://d3tg06jbotvai2.cloudfront.net/game_tetiere/upload/gameimage/file/14329.jpeg</t>
+  </si>
+  <si>
+    <t>Monster Hunter World</t>
+  </si>
+  <si>
+    <t>Action, Rollenspiel</t>
+  </si>
+  <si>
+    <t>https://images.g2a.com/newlayout/470x470/1x1x0/0fc2c84aec63/5b6d86c55bafe30e6e6d2346</t>
+  </si>
+  <si>
+    <t>Super Smash Bros. Ultimate</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda Breath of the Wild</t>
+  </si>
+  <si>
+    <t>A Hat in Time</t>
+  </si>
+  <si>
+    <t>GTA V</t>
+  </si>
+  <si>
+    <t>Pokemon Schild und Schwert</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>For the King</t>
+  </si>
+  <si>
+    <t>South Park der Stab der Wahrheit</t>
+  </si>
+  <si>
+    <t>south park die rektakuläre zerreißprobe</t>
+  </si>
+  <si>
+    <t>Super Mario Oddyssey</t>
+  </si>
+  <si>
+    <t>55 Euro</t>
+  </si>
+  <si>
+    <t>50 Euro</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ca 22 Stunden</t>
+  </si>
+  <si>
+    <t>Singelplayer, Mulitplayer</t>
+  </si>
+  <si>
+    <t>ca 9 Stunden</t>
+  </si>
+  <si>
+    <t>Rollenspiel, Adventure</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>ca 17 Stunden</t>
+  </si>
+  <si>
+    <t>ca 13 Stunden</t>
+  </si>
+  <si>
+    <t>ca 5 Stunden</t>
+  </si>
+  <si>
+    <t>SteamWorld Heist</t>
+  </si>
+  <si>
+    <t>PC, PS4, Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>PC, PS4</t>
+  </si>
+  <si>
+    <t>ca 6 Stunden</t>
+  </si>
+  <si>
+    <t>Sekiro Shadows Die Twice</t>
+  </si>
+  <si>
+    <t>Counter Strike: Global Offensive</t>
+  </si>
+  <si>
+    <t>Metin 2</t>
+  </si>
+  <si>
+    <t>500 Stunden+</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,13 +389,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,17 +713,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAACEF2D-FBCC-0F46-9F00-35E0BAFC11C1}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="69.5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="32.1640625" customWidth="1"/>
     <col min="6" max="6" width="39.1640625" customWidth="1"/>
@@ -493,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -525,9 +767,9 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -537,16 +779,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -554,28 +796,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -583,66 +825,794 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8E63900D-FFE5-D34D-8E85-A337FC298590}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{E036431B-8D1D-E04F-9DCF-7B662AA97144}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{6A207FDC-DD9C-D14B-BCF3-A6D59ECBDDD7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>